--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H2">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2393094788836</v>
+        <v>30.81388166666666</v>
       </c>
       <c r="N2">
-        <v>27.2393094788836</v>
+        <v>92.44164499999999</v>
       </c>
       <c r="O2">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="P2">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="Q2">
-        <v>364.2997612887665</v>
+        <v>598.8552181279466</v>
       </c>
       <c r="R2">
-        <v>364.2997612887665</v>
+        <v>5389.696963151519</v>
       </c>
       <c r="S2">
-        <v>0.01452620935905399</v>
+        <v>0.02083114106791243</v>
       </c>
       <c r="T2">
-        <v>0.01452620935905399</v>
+        <v>0.02083114106791243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H3">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.6660057997323</v>
+        <v>82.73043066666666</v>
       </c>
       <c r="N3">
-        <v>82.6660057997323</v>
+        <v>248.191292</v>
       </c>
       <c r="O3">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="P3">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="Q3">
-        <v>1105.578913550805</v>
+        <v>1607.832165990955</v>
       </c>
       <c r="R3">
-        <v>1105.578913550805</v>
+        <v>14470.48949391859</v>
       </c>
       <c r="S3">
-        <v>0.0440842198314382</v>
+        <v>0.05592834068973401</v>
       </c>
       <c r="T3">
-        <v>0.0440842198314382</v>
+        <v>0.05592834068973401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H4">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.226576679576841</v>
+        <v>8.871077999999999</v>
       </c>
       <c r="N4">
-        <v>8.226576679576841</v>
+        <v>26.613234</v>
       </c>
       <c r="O4">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="P4">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="Q4">
-        <v>110.0226098946032</v>
+        <v>172.405781530176</v>
       </c>
       <c r="R4">
-        <v>110.0226098946032</v>
+        <v>1551.652033771584</v>
       </c>
       <c r="S4">
-        <v>0.004387077992872166</v>
+        <v>0.005997124258523997</v>
       </c>
       <c r="T4">
-        <v>0.004387077992872166</v>
+        <v>0.005997124258523996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H5">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.6661979745589</v>
+        <v>61.624648</v>
       </c>
       <c r="N5">
-        <v>57.6661979745589</v>
+        <v>184.873944</v>
       </c>
       <c r="O5">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="P5">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="Q5">
-        <v>771.2303490236478</v>
+        <v>1197.649891023616</v>
       </c>
       <c r="R5">
-        <v>771.2303490236478</v>
+        <v>10778.84901921254</v>
       </c>
       <c r="S5">
-        <v>0.03075229441364788</v>
+        <v>0.0416601760737311</v>
       </c>
       <c r="T5">
-        <v>0.03075229441364788</v>
+        <v>0.04166017607373109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H6">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.2393094788836</v>
+        <v>30.81388166666666</v>
       </c>
       <c r="N6">
-        <v>27.2393094788836</v>
+        <v>92.44164499999999</v>
       </c>
       <c r="O6">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="P6">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="Q6">
-        <v>1300.777677288404</v>
+        <v>1506.550607683175</v>
       </c>
       <c r="R6">
-        <v>1300.777677288404</v>
+        <v>13558.95546914858</v>
       </c>
       <c r="S6">
-        <v>0.05186763999797871</v>
+        <v>0.05240526805911934</v>
       </c>
       <c r="T6">
-        <v>0.05186763999797871</v>
+        <v>0.05240526805911933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H7">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.6660057997323</v>
+        <v>82.73043066666666</v>
       </c>
       <c r="N7">
-        <v>82.6660057997323</v>
+        <v>248.191292</v>
       </c>
       <c r="O7">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="P7">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="Q7">
-        <v>3947.607229112938</v>
+        <v>4044.85166598098</v>
       </c>
       <c r="R7">
-        <v>3947.607229112938</v>
+        <v>36403.66499382882</v>
       </c>
       <c r="S7">
-        <v>0.1574081983324588</v>
+        <v>0.1406999105998077</v>
       </c>
       <c r="T7">
-        <v>0.1574081983324588</v>
+        <v>0.1406999105998077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H8">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.226576679576841</v>
+        <v>8.871077999999999</v>
       </c>
       <c r="N8">
-        <v>8.226576679576841</v>
+        <v>26.613234</v>
       </c>
       <c r="O8">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="P8">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="Q8">
-        <v>392.8494337784324</v>
+        <v>433.7242576667099</v>
       </c>
       <c r="R8">
-        <v>392.8494337784324</v>
+        <v>3903.51831900039</v>
       </c>
       <c r="S8">
-        <v>0.01566460845723122</v>
+        <v>0.01508707100236121</v>
       </c>
       <c r="T8">
-        <v>0.01566460845723122</v>
+        <v>0.0150870710023612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H9">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.6661979745589</v>
+        <v>61.624648</v>
       </c>
       <c r="N9">
-        <v>57.6661979745589</v>
+        <v>184.873944</v>
       </c>
       <c r="O9">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="P9">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="Q9">
-        <v>2753.774030782599</v>
+        <v>3012.94890066036</v>
       </c>
       <c r="R9">
-        <v>2753.774030782599</v>
+        <v>27116.54010594324</v>
       </c>
       <c r="S9">
-        <v>0.1098048979147314</v>
+        <v>0.1048052378607782</v>
       </c>
       <c r="T9">
-        <v>0.1098048979147314</v>
+        <v>0.1048052378607782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H10">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.2393094788836</v>
+        <v>30.81388166666666</v>
       </c>
       <c r="N10">
-        <v>27.2393094788836</v>
+        <v>92.44164499999999</v>
       </c>
       <c r="O10">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="P10">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="Q10">
-        <v>1618.696063342936</v>
+        <v>2008.865718852283</v>
       </c>
       <c r="R10">
-        <v>1618.696063342936</v>
+        <v>18079.79146967055</v>
       </c>
       <c r="S10">
-        <v>0.06454442303671384</v>
+        <v>0.0698782675831415</v>
       </c>
       <c r="T10">
-        <v>0.06454442303671384</v>
+        <v>0.0698782675831415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H11">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.6660057997323</v>
+        <v>82.73043066666666</v>
       </c>
       <c r="N11">
-        <v>82.6660057997323</v>
+        <v>248.191292</v>
       </c>
       <c r="O11">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="P11">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="Q11">
-        <v>4912.42769072556</v>
+        <v>5393.488813580253</v>
       </c>
       <c r="R11">
-        <v>4912.42769072556</v>
+        <v>48541.39932222228</v>
       </c>
       <c r="S11">
-        <v>0.1958797690238674</v>
+        <v>0.1876121688896991</v>
       </c>
       <c r="T11">
-        <v>0.1958797690238674</v>
+        <v>0.1876121688896991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H12">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.226576679576841</v>
+        <v>8.871077999999999</v>
       </c>
       <c r="N12">
-        <v>8.226576679576841</v>
+        <v>26.613234</v>
       </c>
       <c r="O12">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="P12">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="Q12">
-        <v>488.864348648151</v>
+        <v>578.3368897253399</v>
       </c>
       <c r="R12">
-        <v>488.864348648151</v>
+        <v>5205.03200752806</v>
       </c>
       <c r="S12">
-        <v>0.01949313897851182</v>
+        <v>0.02011741230594457</v>
       </c>
       <c r="T12">
-        <v>0.01949313897851182</v>
+        <v>0.02011741230594457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H13">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>57.6661979745589</v>
+        <v>61.624648</v>
       </c>
       <c r="N13">
-        <v>57.6661979745589</v>
+        <v>184.873944</v>
       </c>
       <c r="O13">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="P13">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="Q13">
-        <v>3426.814021175348</v>
+        <v>4017.52833812744</v>
       </c>
       <c r="R13">
-        <v>3426.814021175348</v>
+        <v>36157.75504314696</v>
       </c>
       <c r="S13">
-        <v>0.136641917441931</v>
+        <v>0.1397494703602767</v>
       </c>
       <c r="T13">
-        <v>0.136641917441931</v>
+        <v>0.1397494703602767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H14">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.2393094788836</v>
+        <v>30.81388166666666</v>
       </c>
       <c r="N14">
-        <v>27.2393094788836</v>
+        <v>92.44164499999999</v>
       </c>
       <c r="O14">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="P14">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="Q14">
-        <v>602.0988421593568</v>
+        <v>699.02781952706</v>
       </c>
       <c r="R14">
-        <v>602.0988421593568</v>
+        <v>6291.250375743541</v>
       </c>
       <c r="S14">
-        <v>0.02400828868267644</v>
+        <v>0.02431563870226195</v>
       </c>
       <c r="T14">
-        <v>0.02400828868267644</v>
+        <v>0.02431563870226195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H15">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.6660057997323</v>
+        <v>82.73043066666666</v>
       </c>
       <c r="N15">
-        <v>82.6660057997323</v>
+        <v>248.191292</v>
       </c>
       <c r="O15">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="P15">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="Q15">
-        <v>1827.252868379152</v>
+        <v>1876.779861201776</v>
       </c>
       <c r="R15">
-        <v>1827.252868379152</v>
+        <v>16891.01875081599</v>
       </c>
       <c r="S15">
-        <v>0.07286048616696136</v>
+        <v>0.0652836693388526</v>
       </c>
       <c r="T15">
-        <v>0.07286048616696136</v>
+        <v>0.0652836693388526</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H16">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.226576679576841</v>
+        <v>8.871077999999999</v>
       </c>
       <c r="N16">
-        <v>8.226576679576841</v>
+        <v>26.613234</v>
       </c>
       <c r="O16">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="P16">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="Q16">
-        <v>181.8405968605115</v>
+        <v>201.244698031752</v>
       </c>
       <c r="R16">
-        <v>181.8405968605115</v>
+        <v>1811.202282285768</v>
       </c>
       <c r="S16">
-        <v>0.007250772195475983</v>
+        <v>0.007000284153778891</v>
       </c>
       <c r="T16">
-        <v>0.007250772195475983</v>
+        <v>0.007000284153778891</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H17">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.6661979745589</v>
+        <v>61.624648</v>
       </c>
       <c r="N17">
-        <v>57.6661979745589</v>
+        <v>184.873944</v>
       </c>
       <c r="O17">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="P17">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="Q17">
-        <v>1274.656064946518</v>
+        <v>1397.984966209632</v>
       </c>
       <c r="R17">
-        <v>1274.656064946518</v>
+        <v>12581.86469588669</v>
       </c>
       <c r="S17">
-        <v>0.05082605817444986</v>
+        <v>0.04862881905407686</v>
       </c>
       <c r="T17">
-        <v>0.05082605817444986</v>
+        <v>0.04862881905407686</v>
       </c>
     </row>
   </sheetData>
